--- a/4月/4月份运费表(4.19).xlsx
+++ b/4月/4月份运费表(4.19).xlsx
@@ -10,7 +10,7 @@
     <sheet name="4月运费" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月运费'!$A$1:$I$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4月运费'!$A$1:$I$184</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -51,12 +51,129 @@
         </r>
       </text>
     </comment>
+    <comment ref="B172" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不用收运费
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>4.7号订单</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A179" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A181" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A184" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">换货订单
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="101">
   <si>
     <t>日期</t>
   </si>
@@ -332,6 +449,33 @@
   </si>
   <si>
     <t>黄冰锋</t>
+  </si>
+  <si>
+    <t>邓桂芳</t>
+  </si>
+  <si>
+    <t>换货不收费</t>
+  </si>
+  <si>
+    <t>董晓欣</t>
+  </si>
+  <si>
+    <t>张彩霞</t>
+  </si>
+  <si>
+    <t>王月鹏</t>
+  </si>
+  <si>
+    <t>吴春媚</t>
+  </si>
+  <si>
+    <t>US5-1</t>
+  </si>
+  <si>
+    <t>丁群丽</t>
+  </si>
+  <si>
+    <t>魏燕</t>
   </si>
 </sst>
 </file>
@@ -344,7 +488,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +499,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -399,6 +550,19 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -554,6 +718,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -885,10 +1054,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,133 +1066,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1033,97 +1202,121 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1449,4202 +1642,4626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J173"/>
+  <sheetPr/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G178" sqref="G178"/>
+      <selection pane="bottomLeft" activeCell="H191" sqref="H191:H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="12.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="5" customWidth="1"/>
     <col min="10" max="10" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:10">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10">
+      <c r="A2" s="4">
         <v>43556</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="14">
         <v>12</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="15">
         <f>D2*E2</f>
         <v>24</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="13"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" hidden="1" spans="1:10">
-      <c r="A3" s="2">
+      <c r="G2" s="13"/>
+      <c r="H2" s="15"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
         <v>43556</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13">
         <v>17</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>7</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <f t="shared" ref="F3:F66" si="0">D3*E3</f>
         <v>119</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" hidden="1" spans="1:10">
-      <c r="A4" s="2">
+      <c r="G3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
         <v>43556</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" s="12">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" hidden="1" spans="1:10">
-      <c r="A5" s="2">
+      <c r="G4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
         <v>43556</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="15">
         <v>520</v>
       </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" hidden="1" spans="1:10">
-      <c r="A6" s="2">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
         <v>43556</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="15">
         <v>680</v>
       </c>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" hidden="1" spans="1:10">
-      <c r="A7" s="2">
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
         <v>43556</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="15">
         <v>70</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" hidden="1" spans="1:10">
-      <c r="A8" s="2">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
         <v>43556</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
-        <v>13</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="14">
+        <v>13</v>
+      </c>
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" hidden="1" spans="1:10">
-      <c r="A9" s="2">
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
         <v>43556</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13">
         <v>6</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="14">
         <v>7</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" hidden="1" spans="1:10">
-      <c r="A10" s="2">
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
         <v>43556</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="13">
         <v>2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="14">
         <v>15</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" hidden="1" spans="1:10">
-      <c r="A11" s="2">
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4">
         <v>43556</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13">
         <v>2</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="14">
         <v>15</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" hidden="1" spans="1:10">
-      <c r="A12" s="2">
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4">
         <v>43556</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13">
         <v>4</v>
       </c>
-      <c r="E12" s="12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="14">
+        <v>10</v>
+      </c>
+      <c r="F12" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" hidden="1" spans="1:10">
-      <c r="A13" s="2">
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4">
         <v>43556</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="12">
-        <v>10</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="14">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
       <c r="I13"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" hidden="1" spans="1:10">
-      <c r="A14" s="2">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
         <v>43556</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13">
         <v>1</v>
       </c>
-      <c r="E14" s="12">
-        <v>13</v>
-      </c>
-      <c r="F14" s="13">
+      <c r="E14" s="14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
       <c r="I14"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" hidden="1" spans="1:10">
-      <c r="A15" s="2">
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4">
         <v>43556</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13">
         <v>1</v>
       </c>
-      <c r="E15" s="12">
-        <v>13</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="14">
+        <v>13</v>
+      </c>
+      <c r="F15" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
       <c r="I15"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" hidden="1" spans="1:10">
-      <c r="A16" s="2">
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4">
         <v>43556</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13">
         <v>1</v>
       </c>
-      <c r="E16" s="12">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="E16" s="14">
+        <v>13</v>
+      </c>
+      <c r="F16" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
       <c r="I16"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" hidden="1" spans="1:10">
-      <c r="A17" s="2">
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4">
         <v>43557</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="E17" s="12">
-        <v>10</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="E17" s="14">
+        <v>10</v>
+      </c>
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
       <c r="I17"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" hidden="1" spans="1:10">
-      <c r="A18" s="2">
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4">
         <v>43557</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="E18" s="12">
-        <v>10</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="E18" s="14">
+        <v>10</v>
+      </c>
+      <c r="F18" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
       <c r="I18"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" hidden="1" spans="1:10">
-      <c r="A19" s="2">
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4">
         <v>43557</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E19" s="12">
-        <v>13</v>
-      </c>
-      <c r="F19" s="13">
+      <c r="E19" s="14">
+        <v>13</v>
+      </c>
+      <c r="F19" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
       <c r="I19"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" hidden="1" spans="1:10">
-      <c r="A20" s="2">
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4">
         <v>43557</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="13">
         <v>3</v>
       </c>
-      <c r="E20" s="12">
-        <v>10</v>
-      </c>
-      <c r="F20" s="13">
+      <c r="E20" s="14">
+        <v>10</v>
+      </c>
+      <c r="F20" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
       <c r="I20"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" hidden="1" spans="1:10">
-      <c r="A21" s="2">
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4">
         <v>43557</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13">
         <v>5</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="14">
         <v>15</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="15">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="13"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" hidden="1" spans="1:10">
-      <c r="A22" s="2">
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4">
         <v>43557</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13">
         <v>1</v>
       </c>
-      <c r="E22" s="12">
-        <v>13</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="E22" s="14">
+        <v>13</v>
+      </c>
+      <c r="F22" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="13"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" hidden="1" spans="1:10">
-      <c r="A23" s="2">
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4">
         <v>43557</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="13">
         <v>1</v>
       </c>
-      <c r="E23" s="12">
-        <v>13</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="E23" s="14">
+        <v>13</v>
+      </c>
+      <c r="F23" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="13"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" hidden="1" spans="1:10">
-      <c r="A24" s="2">
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4">
         <v>43557</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="13">
         <v>2</v>
       </c>
-      <c r="E24" s="12">
-        <v>10</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="E24" s="14">
+        <v>10</v>
+      </c>
+      <c r="F24" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="13"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" hidden="1" spans="1:10">
-      <c r="A25" s="2">
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4">
         <v>43557</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="13">
         <v>1</v>
       </c>
-      <c r="E25" s="12">
-        <v>13</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="E25" s="14">
+        <v>13</v>
+      </c>
+      <c r="F25" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="13"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" hidden="1" spans="1:10">
-      <c r="A26" s="2">
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4">
         <v>43557</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="13">
         <v>1</v>
       </c>
-      <c r="E26" s="12">
-        <v>13</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="E26" s="14">
+        <v>13</v>
+      </c>
+      <c r="F26" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="13"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" hidden="1" spans="1:10">
-      <c r="A27" s="2">
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4">
         <v>43557</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="13">
         <v>1</v>
       </c>
-      <c r="E27" s="12">
-        <v>13</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="E27" s="14">
+        <v>13</v>
+      </c>
+      <c r="F27" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="13"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" hidden="1" spans="1:10">
-      <c r="A28" s="2">
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4">
         <v>43557</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="13">
         <v>1</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="14">
         <v>20</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="13"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" hidden="1" spans="1:10">
-      <c r="A29" s="2">
+      <c r="G28" s="13"/>
+      <c r="H28" s="15"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4">
         <v>43557</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="11">
-        <v>10</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="C29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="13">
+        <v>10</v>
+      </c>
+      <c r="E29" s="14">
         <v>7</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="13"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" hidden="1" spans="1:10">
-      <c r="A30" s="2">
+      <c r="G29" s="13"/>
+      <c r="H29" s="15"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="4">
         <v>43557</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="C30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="13">
         <v>4</v>
       </c>
-      <c r="E30" s="12">
-        <v>10</v>
-      </c>
-      <c r="F30" s="13">
+      <c r="E30" s="14">
+        <v>10</v>
+      </c>
+      <c r="F30" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="13"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" hidden="1" spans="1:10">
-      <c r="A31" s="2">
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4">
         <v>43558</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="C31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="13">
         <v>32</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="14">
         <v>7</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="15">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="13"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" hidden="1" spans="1:10">
-      <c r="A32" s="2">
+      <c r="G31" s="13"/>
+      <c r="H31" s="15"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4">
         <v>43558</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="11">
+      <c r="C32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="13">
         <v>2</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="14">
         <v>15</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="13"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" hidden="1" spans="1:10">
-      <c r="A33" s="2">
+      <c r="G32" s="13"/>
+      <c r="H32" s="15"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4">
         <v>43558</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="11">
+      <c r="C33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="13">
         <v>1</v>
       </c>
-      <c r="E33" s="12">
-        <v>13</v>
-      </c>
-      <c r="F33" s="13">
+      <c r="E33" s="14">
+        <v>13</v>
+      </c>
+      <c r="F33" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="13"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" hidden="1" spans="1:10">
-      <c r="A34" s="2">
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="4">
         <v>43558</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="C34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="13">
         <v>2</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="14">
         <v>12</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="13"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" hidden="1" spans="1:10">
-      <c r="A35" s="2">
+      <c r="G34" s="13"/>
+      <c r="H34" s="15"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4">
         <v>43558</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="11">
+      <c r="C35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="13">
         <v>1</v>
       </c>
-      <c r="E35" s="12">
-        <v>13</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="E35" s="14">
+        <v>13</v>
+      </c>
+      <c r="F35" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="13"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" hidden="1" spans="1:10">
-      <c r="A36" s="2">
+      <c r="G35" s="13"/>
+      <c r="H35" s="15"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4">
         <v>43558</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="13">
         <v>1</v>
       </c>
-      <c r="E36" s="12">
-        <v>13</v>
-      </c>
-      <c r="F36" s="13">
+      <c r="E36" s="14">
+        <v>13</v>
+      </c>
+      <c r="F36" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="13"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" hidden="1" spans="1:10">
-      <c r="A37" s="2">
+      <c r="G36" s="13"/>
+      <c r="H36" s="15"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4">
         <v>43558</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="11">
+      <c r="C37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="13">
         <v>3</v>
       </c>
-      <c r="E37" s="12">
-        <v>10</v>
-      </c>
-      <c r="F37" s="13">
+      <c r="E37" s="14">
+        <v>10</v>
+      </c>
+      <c r="F37" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="13"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" hidden="1" spans="1:10">
-      <c r="A38" s="2">
+      <c r="G37" s="13"/>
+      <c r="H37" s="15"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4">
         <v>43558</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="C38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="13">
         <v>1</v>
       </c>
-      <c r="E38" s="12">
-        <v>13</v>
-      </c>
-      <c r="F38" s="13">
+      <c r="E38" s="14">
+        <v>13</v>
+      </c>
+      <c r="F38" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="13"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" hidden="1" spans="1:10">
-      <c r="A39" s="2">
+      <c r="G38" s="13"/>
+      <c r="H38" s="15"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4">
         <v>43558</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="11">
+      <c r="C39" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="13">
         <v>6</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="14">
         <v>7</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="13"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" hidden="1" spans="1:10">
-      <c r="A40" s="2">
+      <c r="G39" s="13"/>
+      <c r="H39" s="15"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4">
         <v>43558</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="11">
+      <c r="C40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="13">
         <v>6</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="14">
         <v>7</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="13"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" hidden="1" spans="1:10">
-      <c r="A41" s="2">
+      <c r="G40" s="13"/>
+      <c r="H40" s="15"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4">
         <v>43558</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="C41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="13">
         <v>2</v>
       </c>
-      <c r="E41" s="12">
-        <v>10</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="E41" s="14">
+        <v>10</v>
+      </c>
+      <c r="F41" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="13"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" hidden="1" spans="1:10">
-      <c r="A42" s="2">
+      <c r="G41" s="13"/>
+      <c r="H41" s="15"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4">
         <v>43558</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="11">
+      <c r="C42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="13">
         <v>5</v>
       </c>
-      <c r="E42" s="12">
-        <v>10</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="E42" s="14">
+        <v>10</v>
+      </c>
+      <c r="F42" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="13"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" hidden="1" spans="1:10">
-      <c r="A43" s="2">
+      <c r="G42" s="13"/>
+      <c r="H42" s="15"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="4">
         <v>43558</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="11">
+      <c r="C43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="13">
         <v>9</v>
       </c>
-      <c r="E43" s="12">
-        <v>10</v>
-      </c>
-      <c r="F43" s="13">
+      <c r="E43" s="14">
+        <v>10</v>
+      </c>
+      <c r="F43" s="15">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="13"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" hidden="1" spans="1:10">
-      <c r="A44" s="2">
+      <c r="G43" s="13"/>
+      <c r="H43" s="15"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4">
         <v>43558</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="11">
+      <c r="C44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="13">
         <v>2</v>
       </c>
-      <c r="E44" s="12">
-        <v>10</v>
-      </c>
-      <c r="F44" s="13">
+      <c r="E44" s="14">
+        <v>10</v>
+      </c>
+      <c r="F44" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="13"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" hidden="1" spans="1:10">
-      <c r="A45" s="2">
+      <c r="G44" s="13"/>
+      <c r="H44" s="15"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4">
         <v>43558</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="11">
+      <c r="C45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="13">
         <v>2</v>
       </c>
-      <c r="E45" s="12">
-        <v>10</v>
-      </c>
-      <c r="F45" s="13">
+      <c r="E45" s="14">
+        <v>10</v>
+      </c>
+      <c r="F45" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="13"/>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" hidden="1" spans="1:10">
-      <c r="A46" s="2">
+      <c r="G45" s="13"/>
+      <c r="H45" s="15"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4">
         <v>43558</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="11">
+      <c r="C46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="13">
         <v>6</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="14">
         <v>7</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="13"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" hidden="1" spans="1:10">
-      <c r="A47" s="2">
+      <c r="G46" s="13"/>
+      <c r="H46" s="15"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4">
         <v>43559</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="11">
+      <c r="C47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="13">
         <v>1</v>
       </c>
-      <c r="E47" s="12">
-        <v>13</v>
-      </c>
-      <c r="F47" s="13">
+      <c r="E47" s="14">
+        <v>13</v>
+      </c>
+      <c r="F47" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="13"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" hidden="1" spans="1:10">
-      <c r="A48" s="2">
+      <c r="G47" s="13"/>
+      <c r="H47" s="15"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="4">
         <v>43559</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="11">
+      <c r="C48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="13">
         <v>1</v>
       </c>
-      <c r="E48" s="12">
-        <v>13</v>
-      </c>
-      <c r="F48" s="13">
+      <c r="E48" s="14">
+        <v>13</v>
+      </c>
+      <c r="F48" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="13"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" hidden="1" spans="1:10">
-      <c r="A49" s="2">
+      <c r="G48" s="13"/>
+      <c r="H48" s="15"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="4">
         <v>43559</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="11">
+      <c r="C49" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="13">
         <v>1</v>
       </c>
-      <c r="E49" s="12">
-        <v>13</v>
-      </c>
-      <c r="F49" s="13">
+      <c r="E49" s="14">
+        <v>13</v>
+      </c>
+      <c r="F49" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="13"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" hidden="1" spans="1:10">
-      <c r="A50" s="2">
+      <c r="G49" s="13"/>
+      <c r="H49" s="15"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="4">
         <v>43559</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="11">
+      <c r="C50" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="13">
         <v>5</v>
       </c>
-      <c r="E50" s="12">
-        <v>10</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="E50" s="14">
+        <v>10</v>
+      </c>
+      <c r="F50" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="13"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" hidden="1" spans="1:10">
-      <c r="A51" s="2">
+      <c r="G50" s="13"/>
+      <c r="H50" s="15"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4">
         <v>43559</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="11">
+      <c r="C51" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="13">
         <v>1</v>
       </c>
-      <c r="E51" s="12">
-        <v>13</v>
-      </c>
-      <c r="F51" s="13">
+      <c r="E51" s="14">
+        <v>13</v>
+      </c>
+      <c r="F51" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="13"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" hidden="1" spans="1:10">
-      <c r="A52" s="2">
+      <c r="G51" s="13"/>
+      <c r="H51" s="15"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="4">
         <v>43559</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="11">
+      <c r="C52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="13">
         <v>1</v>
       </c>
-      <c r="E52" s="12">
-        <v>13</v>
-      </c>
-      <c r="F52" s="13">
+      <c r="E52" s="14">
+        <v>13</v>
+      </c>
+      <c r="F52" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="13"/>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" hidden="1" spans="1:10">
-      <c r="A53" s="2">
+      <c r="G52" s="13"/>
+      <c r="H52" s="15"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="4">
         <v>43559</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="11">
+      <c r="C53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="13">
         <v>1</v>
       </c>
-      <c r="E53" s="12">
-        <v>13</v>
-      </c>
-      <c r="F53" s="13">
+      <c r="E53" s="14">
+        <v>13</v>
+      </c>
+      <c r="F53" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="13"/>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" hidden="1" spans="1:10">
-      <c r="A54" s="2">
+      <c r="G53" s="13"/>
+      <c r="H53" s="15"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="4">
         <v>43559</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="11">
+      <c r="C54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="13">
         <v>36</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="14">
         <v>7</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="15">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="13"/>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" hidden="1" spans="1:10">
-      <c r="A55" s="2">
+      <c r="G54" s="13"/>
+      <c r="H54" s="15"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="4">
         <v>43559</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="11">
+      <c r="C55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="13">
         <v>1</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="14">
         <v>15</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="13"/>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" hidden="1" spans="1:10">
-      <c r="A56" s="2">
+      <c r="G55" s="13"/>
+      <c r="H55" s="15"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="4">
         <v>43559</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0</v>
-      </c>
-      <c r="F56" s="13">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11" t="s">
+      <c r="C56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="15">
         <v>75</v>
       </c>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" hidden="1" spans="1:10">
-      <c r="A57" s="2">
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="4">
         <v>43559</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="11">
+      <c r="C57" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="13">
         <v>2</v>
       </c>
-      <c r="E57" s="12">
-        <v>10</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="E57" s="14">
+        <v>10</v>
+      </c>
+      <c r="F57" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="13"/>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" hidden="1" spans="1:10">
-      <c r="A58" s="2">
+      <c r="G57" s="13"/>
+      <c r="H57" s="15"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="4">
         <v>43559</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="11">
+      <c r="C58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="13">
         <v>2</v>
       </c>
-      <c r="E58" s="12">
-        <v>10</v>
-      </c>
-      <c r="F58" s="13">
+      <c r="E58" s="14">
+        <v>10</v>
+      </c>
+      <c r="F58" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="13"/>
-      <c r="J58" s="10"/>
-    </row>
-    <row r="59" hidden="1" spans="1:10">
-      <c r="A59" s="2">
+      <c r="G58" s="13"/>
+      <c r="H58" s="15"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="4">
         <v>43559</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="11">
+      <c r="C59" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="13">
         <v>1</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="14">
         <v>15</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="13"/>
-      <c r="J59" s="10"/>
-    </row>
-    <row r="60" hidden="1" spans="1:10">
-      <c r="A60" s="2">
+      <c r="G59" s="13"/>
+      <c r="H59" s="15"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="4">
         <v>43559</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="11">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-      <c r="F60" s="13">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11" t="s">
+      <c r="C60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="13">
+        <v>0</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="15">
         <v>170</v>
       </c>
-      <c r="J60" s="10"/>
-    </row>
-    <row r="61" hidden="1" spans="1:10">
-      <c r="A61" s="2">
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="4">
         <v>43559</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="11">
-        <v>10</v>
-      </c>
-      <c r="E61" s="12">
-        <v>13</v>
-      </c>
-      <c r="F61" s="13">
+      <c r="C61" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="13">
+        <v>10</v>
+      </c>
+      <c r="E61" s="14">
+        <v>13</v>
+      </c>
+      <c r="F61" s="15">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="13"/>
-      <c r="J61" s="10"/>
-    </row>
-    <row r="62" hidden="1" spans="1:10">
-      <c r="A62" s="2">
+      <c r="G61" s="13"/>
+      <c r="H61" s="15"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="4">
         <v>43563</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="11">
+      <c r="C62" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="13">
         <v>2</v>
       </c>
-      <c r="E62" s="12">
-        <v>10</v>
-      </c>
-      <c r="F62" s="13">
+      <c r="E62" s="14">
+        <v>10</v>
+      </c>
+      <c r="F62" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="13"/>
-      <c r="J62" s="10"/>
-    </row>
-    <row r="63" hidden="1" spans="1:10">
-      <c r="A63" s="2">
+      <c r="G62" s="13"/>
+      <c r="H62" s="15"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="4">
         <v>43563</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="11">
+      <c r="C63" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="13">
         <v>1</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="14">
         <v>15</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="13"/>
-      <c r="J63" s="10"/>
-    </row>
-    <row r="64" hidden="1" spans="1:10">
-      <c r="A64" s="2">
+      <c r="G63" s="13"/>
+      <c r="H63" s="15"/>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="4">
         <v>43563</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="11">
+      <c r="C64" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="13">
         <v>1</v>
       </c>
-      <c r="E64" s="12">
-        <v>13</v>
-      </c>
-      <c r="F64" s="13">
+      <c r="E64" s="14">
+        <v>13</v>
+      </c>
+      <c r="F64" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="13"/>
-      <c r="J64" s="10"/>
-    </row>
-    <row r="65" hidden="1" spans="1:10">
-      <c r="A65" s="2">
+      <c r="G64" s="13"/>
+      <c r="H64" s="15"/>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="4">
         <v>43563</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="11">
+      <c r="C65" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="13">
         <v>3</v>
       </c>
-      <c r="E65" s="12">
-        <v>10</v>
-      </c>
-      <c r="F65" s="13">
+      <c r="E65" s="14">
+        <v>10</v>
+      </c>
+      <c r="F65" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="13"/>
-      <c r="J65" s="10"/>
-    </row>
-    <row r="66" hidden="1" spans="1:10">
-      <c r="A66" s="2">
+      <c r="G65" s="13"/>
+      <c r="H65" s="15"/>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="4">
         <v>43563</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="11">
-        <v>10</v>
-      </c>
-      <c r="E66" s="12">
+      <c r="C66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="13">
+        <v>10</v>
+      </c>
+      <c r="E66" s="14">
         <v>7</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="15">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="13"/>
-      <c r="J66" s="17"/>
-    </row>
-    <row r="67" hidden="1" spans="1:10">
-      <c r="A67" s="2">
+      <c r="G66" s="13"/>
+      <c r="H66" s="15"/>
+      <c r="J66" s="19"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="4">
         <v>43563</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="11">
+      <c r="C67" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="13">
         <v>1</v>
       </c>
-      <c r="E67" s="12">
-        <v>13</v>
-      </c>
-      <c r="F67" s="13">
+      <c r="E67" s="14">
+        <v>13</v>
+      </c>
+      <c r="F67" s="15">
         <f t="shared" ref="F67:F110" si="1">D67*E67</f>
         <v>13</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="13"/>
-      <c r="J67" s="10"/>
-    </row>
-    <row r="68" hidden="1" spans="1:10">
-      <c r="A68" s="2">
+      <c r="G67" s="13"/>
+      <c r="H67" s="15"/>
+      <c r="J67" s="12"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="4">
         <v>43563</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="11">
+      <c r="C68" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="13">
         <v>1</v>
       </c>
-      <c r="E68" s="12">
-        <v>13</v>
-      </c>
-      <c r="F68" s="13">
+      <c r="E68" s="14">
+        <v>13</v>
+      </c>
+      <c r="F68" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="13"/>
-      <c r="J68" s="10"/>
-    </row>
-    <row r="69" hidden="1" spans="1:10">
-      <c r="A69" s="2">
+      <c r="G68" s="13"/>
+      <c r="H68" s="15"/>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="4">
         <v>43563</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="11">
+      <c r="C69" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="13">
         <v>2</v>
       </c>
-      <c r="E69" s="12">
-        <v>10</v>
-      </c>
-      <c r="F69" s="13">
+      <c r="E69" s="14">
+        <v>10</v>
+      </c>
+      <c r="F69" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="13"/>
-      <c r="J69" s="10"/>
-    </row>
-    <row r="70" hidden="1" spans="1:10">
-      <c r="A70" s="2">
+      <c r="G69" s="13"/>
+      <c r="H69" s="15"/>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="4">
         <v>43563</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="11">
+      <c r="C70" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="13">
         <v>3</v>
       </c>
-      <c r="E70" s="12">
-        <v>10</v>
-      </c>
-      <c r="F70" s="13">
+      <c r="E70" s="14">
+        <v>10</v>
+      </c>
+      <c r="F70" s="15">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="13"/>
-      <c r="J70" s="10"/>
-    </row>
-    <row r="71" hidden="1" spans="1:10">
-      <c r="A71" s="2">
+      <c r="G70" s="13"/>
+      <c r="H70" s="15"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="4">
         <v>43563</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" s="11">
-        <v>10</v>
-      </c>
-      <c r="E71" s="12">
+      <c r="C71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="13">
+        <v>10</v>
+      </c>
+      <c r="E71" s="14">
         <v>7</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="15">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="13"/>
-      <c r="J71" s="10"/>
-    </row>
-    <row r="72" hidden="1" spans="1:10">
-      <c r="A72" s="2">
+      <c r="G71" s="13"/>
+      <c r="H71" s="15"/>
+      <c r="J71" s="12"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="4">
         <v>43563</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="11">
+      <c r="C72" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="13">
         <v>6</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="14">
         <v>7</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="15">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="13"/>
-      <c r="J72" s="10"/>
-    </row>
-    <row r="73" hidden="1" spans="1:10">
-      <c r="A73" s="2">
+      <c r="G72" s="13"/>
+      <c r="H72" s="15"/>
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="4">
         <v>43563</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="11">
-        <v>13</v>
-      </c>
-      <c r="E73" s="12">
+      <c r="C73" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="13">
+        <v>13</v>
+      </c>
+      <c r="E73" s="14">
         <v>7</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="15">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="G73" s="11"/>
-      <c r="H73" s="13"/>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" hidden="1" spans="1:10">
-      <c r="A74" s="2">
+      <c r="G73" s="13"/>
+      <c r="H73" s="15"/>
+      <c r="J73" s="12"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="4">
         <v>43563</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="11">
+      <c r="C74" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="13">
         <v>2</v>
       </c>
-      <c r="E74" s="12">
-        <v>10</v>
-      </c>
-      <c r="F74" s="13">
+      <c r="E74" s="14">
+        <v>10</v>
+      </c>
+      <c r="F74" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" s="13"/>
-      <c r="J74" s="10"/>
-    </row>
-    <row r="75" hidden="1" spans="1:10">
-      <c r="A75" s="2">
+      <c r="G74" s="13"/>
+      <c r="H74" s="15"/>
+      <c r="J74" s="12"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="4">
         <v>43563</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="11">
-        <v>10</v>
-      </c>
-      <c r="E75" s="12">
+      <c r="C75" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="13">
+        <v>10</v>
+      </c>
+      <c r="E75" s="14">
         <v>7</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="15">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="13"/>
-      <c r="J75" s="10"/>
-    </row>
-    <row r="76" hidden="1" spans="1:10">
-      <c r="A76" s="2">
+      <c r="G75" s="13"/>
+      <c r="H75" s="15"/>
+      <c r="J75" s="12"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="4">
         <v>43563</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="11">
+      <c r="C76" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="13">
         <v>1</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="14">
         <v>20</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G76" s="11"/>
-      <c r="H76" s="13"/>
-      <c r="J76" s="10"/>
-    </row>
-    <row r="77" hidden="1" spans="1:10">
-      <c r="A77" s="2">
+      <c r="G76" s="13"/>
+      <c r="H76" s="15"/>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="4">
         <v>43563</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="11">
-        <v>0</v>
-      </c>
-      <c r="E77" s="10">
-        <v>0</v>
-      </c>
-      <c r="F77" s="13">
-        <v>0</v>
-      </c>
-      <c r="G77" s="19" t="s">
+      <c r="C77" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="13">
+        <v>0</v>
+      </c>
+      <c r="E77" s="12">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15">
+        <v>0</v>
+      </c>
+      <c r="G77" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="15">
         <v>60</v>
       </c>
-      <c r="J77" s="18"/>
-    </row>
-    <row r="78" hidden="1" spans="1:10">
-      <c r="A78" s="2">
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="4">
         <v>43563</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="11">
+      <c r="C78" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="13">
         <v>40</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="14">
         <v>7</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="15">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="G78" s="11"/>
-      <c r="H78" s="13"/>
-      <c r="J78" s="10"/>
-    </row>
-    <row r="79" hidden="1" spans="1:10">
-      <c r="A79" s="2">
+      <c r="G78" s="13"/>
+      <c r="H78" s="15"/>
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="4">
         <v>43563</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="11">
+      <c r="C79" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="13">
         <v>6</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="14">
         <v>7</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="15">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G79" s="11"/>
-      <c r="H79" s="13"/>
-      <c r="J79" s="10"/>
-    </row>
-    <row r="80" hidden="1" spans="1:10">
-      <c r="A80" s="2">
+      <c r="G79" s="13"/>
+      <c r="H79" s="15"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="4">
         <v>43563</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="11">
+      <c r="C80" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="13">
         <v>6</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="14">
         <v>7</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="15">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G80" s="11"/>
-      <c r="H80" s="13"/>
-      <c r="J80" s="10"/>
-    </row>
-    <row r="81" hidden="1" spans="1:10">
-      <c r="A81" s="2">
+      <c r="G80" s="13"/>
+      <c r="H80" s="15"/>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="4">
         <v>43563</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="11">
+      <c r="C81" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="13">
         <v>1</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="14">
         <v>15</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="13"/>
-      <c r="J81" s="10"/>
-    </row>
-    <row r="82" hidden="1" spans="1:10">
-      <c r="A82" s="2">
+      <c r="G81" s="13"/>
+      <c r="H81" s="15"/>
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="4">
         <v>43563</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="11">
-        <v>0</v>
-      </c>
-      <c r="E82" s="10">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
-        <v>0</v>
-      </c>
-      <c r="G82" s="11" t="s">
+      <c r="C82" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="13">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="15">
+        <v>0</v>
+      </c>
+      <c r="G82" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="15">
         <v>300</v>
       </c>
-      <c r="J82" s="10"/>
-    </row>
-    <row r="83" hidden="1" spans="1:10">
-      <c r="A83" s="2">
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="4">
         <v>43563</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="11">
+      <c r="C83" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="13">
         <v>1</v>
       </c>
-      <c r="E83" s="12">
-        <v>13</v>
-      </c>
-      <c r="F83" s="13">
+      <c r="E83" s="14">
+        <v>13</v>
+      </c>
+      <c r="F83" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="13"/>
-      <c r="J83" s="10"/>
-    </row>
-    <row r="84" hidden="1" spans="1:10">
-      <c r="A84" s="2">
+      <c r="G83" s="13"/>
+      <c r="H83" s="15"/>
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="4">
         <v>43563</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="11">
+      <c r="C84" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="13">
         <v>2</v>
       </c>
-      <c r="E84" s="12">
-        <v>10</v>
-      </c>
-      <c r="F84" s="13">
+      <c r="E84" s="14">
+        <v>10</v>
+      </c>
+      <c r="F84" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G84" s="11"/>
-      <c r="H84" s="13"/>
-      <c r="J84" s="10"/>
-    </row>
-    <row r="85" hidden="1" spans="1:10">
-      <c r="A85" s="2">
+      <c r="G84" s="13"/>
+      <c r="H84" s="15"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="4">
         <v>43563</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="11">
+      <c r="C85" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="13">
         <v>2</v>
       </c>
-      <c r="E85" s="12">
-        <v>10</v>
-      </c>
-      <c r="F85" s="13">
+      <c r="E85" s="14">
+        <v>10</v>
+      </c>
+      <c r="F85" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G85" s="11"/>
-      <c r="H85" s="13"/>
-      <c r="J85" s="10"/>
-    </row>
-    <row r="86" hidden="1" spans="1:10">
-      <c r="A86" s="2">
+      <c r="G85" s="13"/>
+      <c r="H85" s="15"/>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="4">
         <v>43563</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="11">
+      <c r="C86" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="13">
         <v>1</v>
       </c>
-      <c r="E86" s="12">
-        <v>13</v>
-      </c>
-      <c r="F86" s="13">
+      <c r="E86" s="14">
+        <v>13</v>
+      </c>
+      <c r="F86" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G86" s="11"/>
-      <c r="H86" s="13"/>
-      <c r="J86" s="10"/>
-    </row>
-    <row r="87" hidden="1" spans="1:10">
-      <c r="A87" s="2">
+      <c r="G86" s="13"/>
+      <c r="H86" s="15"/>
+      <c r="J86" s="12"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="4">
         <v>43564</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="11">
+      <c r="C87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="13">
         <v>44</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="14">
         <v>7</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="15">
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="G87" s="11"/>
-      <c r="H87" s="13"/>
-      <c r="J87" s="10"/>
-    </row>
-    <row r="88" hidden="1" spans="1:10">
-      <c r="A88" s="2">
+      <c r="G87" s="13"/>
+      <c r="H87" s="15"/>
+      <c r="J87" s="12"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="4">
         <v>43564</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="11">
+      <c r="C88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="13">
         <v>1</v>
       </c>
-      <c r="E88" s="12">
-        <v>13</v>
-      </c>
-      <c r="F88" s="13">
+      <c r="E88" s="14">
+        <v>13</v>
+      </c>
+      <c r="F88" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G88" s="11"/>
-      <c r="H88" s="13"/>
-      <c r="J88" s="10"/>
-    </row>
-    <row r="89" hidden="1" spans="1:10">
-      <c r="A89" s="2">
+      <c r="G88" s="13"/>
+      <c r="H88" s="15"/>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="4">
         <v>43564</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="11">
+      <c r="C89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="13">
         <v>1</v>
       </c>
-      <c r="E89" s="12">
-        <v>13</v>
-      </c>
-      <c r="F89" s="13">
+      <c r="E89" s="14">
+        <v>13</v>
+      </c>
+      <c r="F89" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G89" s="11"/>
-      <c r="H89" s="13"/>
-      <c r="J89" s="10"/>
-    </row>
-    <row r="90" hidden="1" spans="1:10">
-      <c r="A90" s="2">
+      <c r="G89" s="13"/>
+      <c r="H89" s="15"/>
+      <c r="J89" s="12"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="4">
         <v>43564</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="11">
+      <c r="C90" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="13">
         <v>2</v>
       </c>
-      <c r="E90" s="12">
-        <v>10</v>
-      </c>
-      <c r="F90" s="13">
+      <c r="E90" s="14">
+        <v>10</v>
+      </c>
+      <c r="F90" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G90" s="11"/>
-      <c r="H90" s="13"/>
-      <c r="J90" s="10"/>
-    </row>
-    <row r="91" hidden="1" spans="1:10">
-      <c r="A91" s="2">
+      <c r="G90" s="13"/>
+      <c r="H90" s="15"/>
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="4">
         <v>43564</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="11">
+      <c r="C91" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="13">
         <v>22</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="14">
         <v>7</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="15">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="G91" s="11"/>
-      <c r="H91" s="13"/>
-      <c r="J91" s="10"/>
-    </row>
-    <row r="92" hidden="1" spans="1:10">
-      <c r="A92" s="2">
+      <c r="G91" s="13"/>
+      <c r="H91" s="15"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="4">
         <v>43564</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="11">
+      <c r="C92" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="13">
         <v>2</v>
       </c>
-      <c r="E92" s="12">
-        <v>10</v>
-      </c>
-      <c r="F92" s="13">
+      <c r="E92" s="14">
+        <v>10</v>
+      </c>
+      <c r="F92" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G92" s="11"/>
-      <c r="H92" s="13"/>
-      <c r="J92" s="10"/>
-    </row>
-    <row r="93" hidden="1" spans="1:10">
-      <c r="A93" s="2">
+      <c r="G92" s="13"/>
+      <c r="H92" s="15"/>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="4">
         <v>43565</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="11">
+      <c r="C93" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="13">
         <v>1</v>
       </c>
-      <c r="E93" s="12">
-        <v>13</v>
-      </c>
-      <c r="F93" s="13">
+      <c r="E93" s="14">
+        <v>13</v>
+      </c>
+      <c r="F93" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G93" s="11"/>
-      <c r="H93" s="13"/>
-      <c r="J93" s="10"/>
-    </row>
-    <row r="94" hidden="1" spans="1:10">
-      <c r="A94" s="2">
+      <c r="G93" s="13"/>
+      <c r="H93" s="15"/>
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="4">
         <v>43565</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="11">
+      <c r="C94" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="13">
         <v>1</v>
       </c>
-      <c r="E94" s="12">
-        <v>13</v>
-      </c>
-      <c r="F94" s="13">
+      <c r="E94" s="14">
+        <v>13</v>
+      </c>
+      <c r="F94" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="13"/>
-      <c r="J94" s="10"/>
-    </row>
-    <row r="95" hidden="1" spans="1:10">
-      <c r="A95" s="2">
+      <c r="G94" s="13"/>
+      <c r="H94" s="15"/>
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="4">
         <v>43565</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="11">
+      <c r="C95" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="13">
         <v>2</v>
       </c>
-      <c r="E95" s="12">
-        <v>10</v>
-      </c>
-      <c r="F95" s="13">
+      <c r="E95" s="14">
+        <v>10</v>
+      </c>
+      <c r="F95" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G95" s="11"/>
-      <c r="H95" s="13"/>
-      <c r="J95" s="10"/>
-    </row>
-    <row r="96" hidden="1" spans="1:10">
-      <c r="A96" s="2">
+      <c r="G95" s="13"/>
+      <c r="H95" s="15"/>
+      <c r="J95" s="12"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="4">
         <v>43565</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="11">
+      <c r="C96" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="13">
         <v>1</v>
       </c>
-      <c r="E96" s="12">
-        <v>13</v>
-      </c>
-      <c r="F96" s="13">
+      <c r="E96" s="14">
+        <v>13</v>
+      </c>
+      <c r="F96" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G96" s="11"/>
-      <c r="H96" s="13"/>
-      <c r="J96" s="10"/>
-    </row>
-    <row r="97" hidden="1" spans="1:8">
-      <c r="A97" s="2">
+      <c r="G96" s="13"/>
+      <c r="H96" s="15"/>
+      <c r="J96" s="12"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="4">
         <v>43565</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="11">
+      <c r="C97" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="13">
         <v>20</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="14">
         <v>7</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="15">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="G97" s="11"/>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" hidden="1" spans="1:8">
-      <c r="A98" s="2">
+      <c r="G97" s="13"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="4">
         <v>43565</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" s="11">
+      <c r="C98" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="13">
         <v>2</v>
       </c>
-      <c r="E98" s="12">
-        <v>10</v>
-      </c>
-      <c r="F98" s="13">
+      <c r="E98" s="14">
+        <v>10</v>
+      </c>
+      <c r="F98" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G98" s="11"/>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" hidden="1" spans="1:8">
-      <c r="A99" s="2">
+      <c r="G98" s="13"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="4">
         <v>43565</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="11">
+      <c r="C99" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="13">
         <v>2</v>
       </c>
-      <c r="E99" s="12">
-        <v>10</v>
-      </c>
-      <c r="F99" s="13">
+      <c r="E99" s="14">
+        <v>10</v>
+      </c>
+      <c r="F99" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G99" s="11"/>
-      <c r="H99" s="13"/>
-    </row>
-    <row r="100" hidden="1" spans="1:8">
-      <c r="A100" s="2">
+      <c r="G99" s="13"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="4">
         <v>43566</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="11">
+      <c r="C100" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="13">
         <v>1</v>
       </c>
-      <c r="E100" s="12">
-        <v>13</v>
-      </c>
-      <c r="F100" s="13">
+      <c r="E100" s="14">
+        <v>13</v>
+      </c>
+      <c r="F100" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G100" s="11"/>
-      <c r="H100" s="13"/>
-    </row>
-    <row r="101" hidden="1" spans="1:8">
-      <c r="A101" s="2">
+      <c r="G100" s="13"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="4">
         <v>43566</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="11">
+      <c r="C101" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="13">
         <v>1</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="14">
         <v>15</v>
       </c>
-      <c r="F101" s="13">
+      <c r="F101" s="15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G101" s="11"/>
-      <c r="H101" s="13"/>
-    </row>
-    <row r="102" hidden="1" spans="1:8">
-      <c r="A102" s="2">
+      <c r="G101" s="13"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="4">
         <v>43566</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="11">
+      <c r="C102" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="13">
         <v>2</v>
       </c>
-      <c r="E102" s="12">
-        <v>10</v>
-      </c>
-      <c r="F102" s="13">
+      <c r="E102" s="14">
+        <v>10</v>
+      </c>
+      <c r="F102" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G102" s="11"/>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" hidden="1" spans="1:8">
-      <c r="A103" s="2">
+      <c r="G102" s="13"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="4">
         <v>43566</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="11">
+      <c r="C103" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="13">
         <v>1</v>
       </c>
-      <c r="E103" s="12">
-        <v>13</v>
-      </c>
-      <c r="F103" s="13">
+      <c r="E103" s="14">
+        <v>13</v>
+      </c>
+      <c r="F103" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G103" s="11"/>
-      <c r="H103" s="13"/>
-    </row>
-    <row r="104" hidden="1" spans="1:8">
-      <c r="A104" s="2">
+      <c r="G103" s="13"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="4">
         <v>43566</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="11">
+      <c r="C104" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="13">
         <v>6</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="14">
         <v>7</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="15">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="G104" s="11"/>
-      <c r="H104" s="13"/>
-    </row>
-    <row r="105" hidden="1" spans="1:8">
-      <c r="A105" s="2">
+      <c r="G104" s="13"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="4">
         <v>43566</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="11">
+      <c r="C105" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="13">
         <v>2</v>
       </c>
-      <c r="E105" s="12">
-        <v>10</v>
-      </c>
-      <c r="F105" s="13">
+      <c r="E105" s="14">
+        <v>10</v>
+      </c>
+      <c r="F105" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G105" s="11"/>
-      <c r="H105" s="13"/>
-    </row>
-    <row r="106" hidden="1" spans="1:8">
-      <c r="A106" s="2">
+      <c r="G105" s="13"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="4">
         <v>43566</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="11">
+      <c r="C106" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="13">
         <v>1</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="14">
         <v>15</v>
       </c>
-      <c r="F106" s="13">
+      <c r="F106" s="15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G106" s="11"/>
-      <c r="H106" s="13"/>
-    </row>
-    <row r="107" hidden="1" spans="1:8">
-      <c r="A107" s="2">
+      <c r="G106" s="13"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="4">
         <v>43566</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="11">
-        <v>0</v>
-      </c>
-      <c r="E107" s="12">
-        <v>0</v>
-      </c>
-      <c r="F107" s="13">
+      <c r="C107" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="13">
+        <v>0</v>
+      </c>
+      <c r="E107" s="14">
+        <v>0</v>
+      </c>
+      <c r="F107" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G107" s="11" t="s">
+      <c r="G107" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H107" s="13">
+      <c r="H107" s="15">
         <v>340</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:8">
-      <c r="A108" s="2">
+    <row r="108" spans="1:8">
+      <c r="A108" s="4">
         <v>43566</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" s="11">
+      <c r="C108" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="13">
         <v>1</v>
       </c>
-      <c r="E108" s="12">
-        <v>13</v>
-      </c>
-      <c r="F108" s="13">
+      <c r="E108" s="14">
+        <v>13</v>
+      </c>
+      <c r="F108" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G108" s="11"/>
-      <c r="H108" s="13"/>
-    </row>
-    <row r="109" hidden="1" spans="1:8">
-      <c r="A109" s="2">
+      <c r="G108" s="13"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="4">
         <v>43566</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="11">
+      <c r="C109" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="13">
         <v>1</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="14">
         <v>15</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F109" s="15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G109" s="11"/>
-      <c r="H109" s="13"/>
-    </row>
-    <row r="110" hidden="1" spans="1:8">
-      <c r="A110" s="2">
+      <c r="G109" s="13"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="4">
         <v>43566</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="11">
+      <c r="C110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="13">
         <v>2</v>
       </c>
-      <c r="E110" s="12">
-        <v>10</v>
-      </c>
-      <c r="F110" s="13">
+      <c r="E110" s="14">
+        <v>10</v>
+      </c>
+      <c r="F110" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G110" s="11"/>
-      <c r="H110" s="13"/>
-    </row>
-    <row r="111" s="1" customFormat="1" hidden="1" spans="1:9">
-      <c r="A111" s="2">
+      <c r="G110" s="13"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:9">
+      <c r="A111" s="4">
         <v>43566</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B111" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="21"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="29"/>
-    </row>
-    <row r="112" hidden="1" spans="1:8">
-      <c r="A112" s="2">
+      <c r="C111" s="23"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="31"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="4">
         <v>43566</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D112" s="11">
+      <c r="C112" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="13">
         <v>34</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="14">
         <v>7</v>
       </c>
-      <c r="F112" s="13">
+      <c r="F112" s="15">
         <f t="shared" ref="F112:F123" si="2">D112*E112</f>
         <v>238</v>
       </c>
-      <c r="H112" s="13"/>
-    </row>
-    <row r="113" hidden="1" spans="1:8">
-      <c r="A113" s="2">
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="4">
         <v>43566</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="11">
+      <c r="C113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="13">
         <v>2</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="14">
         <v>12</v>
       </c>
-      <c r="F113" s="13">
+      <c r="F113" s="15">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H113" s="13"/>
-    </row>
-    <row r="114" hidden="1" spans="1:9">
-      <c r="A114" s="25">
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="27">
         <v>43567</v>
       </c>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C114" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="27">
+      <c r="C114" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="29">
         <v>12</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="14">
         <v>7</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F114" s="15">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="G114" s="28"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="26"/>
-    </row>
-    <row r="115" hidden="1" spans="1:9">
-      <c r="A115" s="25">
+      <c r="G114" s="30"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="28"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="27">
         <v>43567</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B115" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C115" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D115" s="27">
-        <v>10</v>
-      </c>
-      <c r="E115" s="12">
+      <c r="C115" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="29">
+        <v>10</v>
+      </c>
+      <c r="E115" s="14">
         <v>7</v>
       </c>
-      <c r="F115" s="13">
+      <c r="F115" s="15">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="G115" s="28"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="26"/>
-    </row>
-    <row r="116" hidden="1" spans="1:9">
-      <c r="A116" s="25">
+      <c r="G115" s="30"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="28"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="27">
         <v>43567</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C116" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="27">
-        <v>0</v>
-      </c>
-      <c r="E116" s="12">
-        <v>0</v>
-      </c>
-      <c r="F116" s="13">
+      <c r="C116" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="29">
+        <v>0</v>
+      </c>
+      <c r="E116" s="14">
+        <v>0</v>
+      </c>
+      <c r="F116" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116" s="28" t="s">
+      <c r="G116" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="H116" s="13">
+      <c r="H116" s="15">
         <v>60</v>
       </c>
-      <c r="I116" s="26"/>
-    </row>
-    <row r="117" hidden="1" spans="1:9">
-      <c r="A117" s="25">
+      <c r="I116" s="28"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="27">
         <v>43567</v>
       </c>
-      <c r="B117" s="26" t="s">
+      <c r="B117" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C117" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="27">
+      <c r="C117" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="29">
         <v>2</v>
       </c>
-      <c r="E117" s="12">
-        <v>10</v>
-      </c>
-      <c r="F117" s="13">
+      <c r="E117" s="14">
+        <v>10</v>
+      </c>
+      <c r="F117" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G117" s="28"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="26"/>
-    </row>
-    <row r="118" hidden="1" spans="1:9">
-      <c r="A118" s="25">
+      <c r="G117" s="30"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="28"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="27">
         <v>43567</v>
       </c>
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C118" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="27">
+      <c r="C118" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="29">
         <v>2</v>
       </c>
-      <c r="E118" s="12">
-        <v>10</v>
-      </c>
-      <c r="F118" s="13">
+      <c r="E118" s="14">
+        <v>10</v>
+      </c>
+      <c r="F118" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G118" s="28"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="26"/>
-    </row>
-    <row r="119" hidden="1" spans="1:9">
-      <c r="A119" s="25">
+      <c r="G118" s="30"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="28"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="27">
         <v>43567</v>
       </c>
-      <c r="B119" s="26" t="s">
+      <c r="B119" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C119" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" s="27">
-        <v>0</v>
-      </c>
-      <c r="E119" s="12">
-        <v>0</v>
-      </c>
-      <c r="F119" s="13">
+      <c r="C119" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="29">
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <v>0</v>
+      </c>
+      <c r="F119" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G119" s="28" t="s">
+      <c r="G119" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="H119" s="13">
+      <c r="H119" s="15">
         <v>70</v>
       </c>
-      <c r="I119" s="26"/>
-    </row>
-    <row r="120" hidden="1" spans="1:9">
-      <c r="A120" s="25">
+      <c r="I119" s="28"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="27">
         <v>43567</v>
       </c>
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="27">
+      <c r="C120" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="29">
         <v>6</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="14">
         <v>7</v>
       </c>
-      <c r="F120" s="13">
+      <c r="F120" s="15">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="G120" s="28"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="26"/>
-    </row>
-    <row r="121" hidden="1" spans="1:9">
-      <c r="A121" s="25">
+      <c r="G120" s="30"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="28"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="27">
         <v>43567</v>
       </c>
-      <c r="B121" s="26" t="s">
+      <c r="B121" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C121" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="27">
+      <c r="C121" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="29">
         <v>1</v>
       </c>
-      <c r="E121" s="12">
-        <v>13</v>
-      </c>
-      <c r="F121" s="13">
+      <c r="E121" s="14">
+        <v>13</v>
+      </c>
+      <c r="F121" s="15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G121" s="28"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="30"/>
-    </row>
-    <row r="122" hidden="1" spans="1:9">
-      <c r="A122" s="25">
+      <c r="G121" s="30"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="32"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="27">
         <v>43567</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="27">
-        <v>10</v>
-      </c>
-      <c r="E122" s="12">
+      <c r="C122" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="29">
+        <v>10</v>
+      </c>
+      <c r="E122" s="14">
         <v>9.5</v>
       </c>
-      <c r="F122" s="13">
+      <c r="F122" s="15">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="G122" s="28"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="26"/>
-    </row>
-    <row r="123" hidden="1" spans="1:9">
-      <c r="A123" s="25">
+      <c r="G122" s="30"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="28"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="27">
         <v>43567</v>
       </c>
-      <c r="B123" s="26" t="s">
+      <c r="B123" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="27">
+      <c r="C123" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="29">
         <v>1</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E123" s="14">
         <v>15</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F123" s="15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G123" s="28"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="26"/>
-    </row>
-    <row r="124" hidden="1" spans="1:9">
-      <c r="A124" s="25">
+      <c r="G123" s="30"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="28"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="27">
         <v>43567</v>
       </c>
-      <c r="B124" s="26" t="s">
+      <c r="B124" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="27">
-        <v>0</v>
-      </c>
-      <c r="E124" s="12">
-        <v>0</v>
-      </c>
-      <c r="F124" s="13">
-        <v>0</v>
-      </c>
-      <c r="G124" s="28" t="s">
+      <c r="C124" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="29">
+        <v>0</v>
+      </c>
+      <c r="E124" s="14">
+        <v>0</v>
+      </c>
+      <c r="F124" s="15">
+        <v>0</v>
+      </c>
+      <c r="G124" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H124" s="13">
+      <c r="H124" s="15">
         <v>170</v>
       </c>
-      <c r="I124" s="26"/>
-    </row>
-    <row r="125" hidden="1" spans="1:9">
-      <c r="A125" s="25">
+      <c r="I124" s="28"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="27">
         <v>43567</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C125" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="27">
+      <c r="C125" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="29">
         <v>2</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E125" s="14">
         <v>15</v>
       </c>
-      <c r="F125" s="13">
+      <c r="F125" s="15">
         <f>D125*E125</f>
         <v>30</v>
       </c>
-      <c r="G125" s="28"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="26"/>
-    </row>
-    <row r="126" hidden="1" spans="1:9">
-      <c r="A126" s="25">
+      <c r="G125" s="30"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="28"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="27">
         <v>43567</v>
       </c>
-      <c r="B126" s="26" t="s">
+      <c r="B126" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C126" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="27">
-        <v>0</v>
-      </c>
-      <c r="E126" s="12">
-        <v>0</v>
-      </c>
-      <c r="F126" s="13">
+      <c r="C126" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="29">
+        <v>0</v>
+      </c>
+      <c r="E126" s="14">
+        <v>0</v>
+      </c>
+      <c r="F126" s="15">
         <f t="shared" ref="F126:F171" si="3">D126*E126</f>
         <v>0</v>
       </c>
-      <c r="G126" s="28" t="s">
+      <c r="G126" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H126" s="13">
+      <c r="H126" s="15">
         <v>100</v>
       </c>
-      <c r="I126" s="26"/>
-    </row>
-    <row r="127" hidden="1" spans="1:9">
-      <c r="A127" s="25">
+      <c r="I126" s="28"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="27">
         <v>43567</v>
       </c>
-      <c r="B127" s="26" t="s">
+      <c r="B127" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C127" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="27">
+      <c r="C127" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="29">
         <v>11</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E127" s="14">
         <v>7</v>
       </c>
-      <c r="F127" s="13">
+      <c r="F127" s="15">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="G127" s="28"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="26"/>
-    </row>
-    <row r="128" hidden="1" spans="1:9">
-      <c r="A128" s="25">
+      <c r="G127" s="30"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="28"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="27">
         <v>43567</v>
       </c>
-      <c r="B128" s="26" t="s">
+      <c r="B128" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C128" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="27">
+      <c r="C128" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="29">
         <v>1</v>
       </c>
-      <c r="E128" s="12">
-        <v>13</v>
-      </c>
-      <c r="F128" s="13">
+      <c r="E128" s="14">
+        <v>13</v>
+      </c>
+      <c r="F128" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G128" s="28"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="26"/>
-    </row>
-    <row r="129" hidden="1" spans="1:9">
-      <c r="A129" s="25">
+      <c r="G128" s="30"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="28"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="27">
         <v>43567</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C129" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="27">
+      <c r="C129" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="29">
         <v>1</v>
       </c>
-      <c r="E129" s="12">
-        <v>13</v>
-      </c>
-      <c r="F129" s="13">
+      <c r="E129" s="14">
+        <v>13</v>
+      </c>
+      <c r="F129" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G129" s="28"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="26"/>
-    </row>
-    <row r="130" hidden="1" spans="1:9">
-      <c r="A130" s="25">
+      <c r="G129" s="30"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="28"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="27">
         <v>43568</v>
       </c>
-      <c r="B130" s="26" t="s">
+      <c r="B130" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C130" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" s="27">
+      <c r="C130" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="29">
         <v>1</v>
       </c>
-      <c r="E130" s="12">
-        <v>13</v>
-      </c>
-      <c r="F130" s="13">
+      <c r="E130" s="14">
+        <v>13</v>
+      </c>
+      <c r="F130" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G130" s="28"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="26"/>
-    </row>
-    <row r="131" hidden="1" spans="1:9">
-      <c r="A131" s="25">
+      <c r="G130" s="30"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="28"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="27">
         <v>43568</v>
       </c>
-      <c r="B131" s="26" t="s">
+      <c r="B131" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C131" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="27">
-        <v>10</v>
-      </c>
-      <c r="E131" s="12">
+      <c r="C131" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="29">
+        <v>10</v>
+      </c>
+      <c r="E131" s="14">
         <v>9.5</v>
       </c>
-      <c r="F131" s="13">
+      <c r="F131" s="15">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="G131" s="28"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="26"/>
-    </row>
-    <row r="132" hidden="1" spans="1:9">
-      <c r="A132" s="25">
+      <c r="G131" s="30"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="28"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="27">
         <v>43568</v>
       </c>
-      <c r="B132" s="26" t="s">
+      <c r="B132" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C132" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" s="27">
-        <v>10</v>
-      </c>
-      <c r="E132" s="12">
+      <c r="C132" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="29">
+        <v>10</v>
+      </c>
+      <c r="E132" s="14">
         <v>7</v>
       </c>
-      <c r="F132" s="13">
+      <c r="F132" s="15">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G132" s="28"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="26"/>
-    </row>
-    <row r="133" hidden="1" spans="1:9">
-      <c r="A133" s="25">
+      <c r="G132" s="30"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="28"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="27">
         <v>43568</v>
       </c>
-      <c r="B133" s="26" t="s">
+      <c r="B133" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C133" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D133" s="27">
-        <v>10</v>
-      </c>
-      <c r="E133" s="12">
+      <c r="C133" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="29">
+        <v>10</v>
+      </c>
+      <c r="E133" s="14">
         <v>7</v>
       </c>
-      <c r="F133" s="13">
+      <c r="F133" s="15">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G133" s="28"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="26"/>
-    </row>
-    <row r="134" hidden="1" spans="1:9">
-      <c r="A134" s="25">
+      <c r="G133" s="30"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="28"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="27">
         <v>43568</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C134" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D134" s="27">
+      <c r="C134" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="29">
         <v>2</v>
       </c>
-      <c r="E134" s="12">
-        <v>10</v>
-      </c>
-      <c r="F134" s="13">
+      <c r="E134" s="14">
+        <v>10</v>
+      </c>
+      <c r="F134" s="15">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G134" s="28"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="26"/>
-    </row>
-    <row r="135" hidden="1" spans="1:9">
-      <c r="A135" s="25">
+      <c r="G134" s="30"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="28"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="27">
         <v>43568</v>
       </c>
-      <c r="B135" s="26" t="s">
+      <c r="B135" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="27">
+      <c r="C135" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="29">
         <v>1</v>
       </c>
-      <c r="E135" s="12">
-        <v>13</v>
-      </c>
-      <c r="F135" s="13">
+      <c r="E135" s="14">
+        <v>13</v>
+      </c>
+      <c r="F135" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G135" s="28"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="26"/>
-    </row>
-    <row r="136" hidden="1" spans="1:9">
-      <c r="A136" s="25">
+      <c r="G135" s="30"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="28"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="27">
         <v>43570</v>
       </c>
-      <c r="B136" s="26" t="s">
+      <c r="B136" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C136" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" s="27">
+      <c r="C136" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="29">
         <v>1</v>
       </c>
-      <c r="E136" s="12">
-        <v>13</v>
-      </c>
-      <c r="F136" s="13">
+      <c r="E136" s="14">
+        <v>13</v>
+      </c>
+      <c r="F136" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G136" s="28"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="26"/>
-    </row>
-    <row r="137" hidden="1" spans="1:9">
-      <c r="A137" s="25">
+      <c r="G136" s="30"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="28"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="27">
         <v>43570</v>
       </c>
-      <c r="B137" s="26" t="s">
+      <c r="B137" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C137" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="27">
+      <c r="C137" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="29">
         <v>2</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E137" s="14">
         <v>24</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="15">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="G137" s="28"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="26"/>
-    </row>
-    <row r="138" hidden="1" spans="1:9">
-      <c r="A138" s="25">
+      <c r="G137" s="30"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="28"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="27">
         <v>43570</v>
       </c>
-      <c r="B138" s="26" t="s">
+      <c r="B138" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C138" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" s="27">
-        <v>10</v>
-      </c>
-      <c r="E138" s="12">
+      <c r="C138" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" s="29">
+        <v>10</v>
+      </c>
+      <c r="E138" s="14">
         <v>7</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F138" s="15">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="G138" s="28"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="26"/>
-    </row>
-    <row r="139" hidden="1" spans="1:9">
-      <c r="A139" s="25">
+      <c r="G138" s="30"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="28"/>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="27">
         <v>43570</v>
       </c>
-      <c r="B139" s="26" t="s">
+      <c r="B139" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C139" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" s="27">
+      <c r="C139" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" s="29">
         <v>7</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E139" s="14">
         <v>7</v>
       </c>
-      <c r="F139" s="13">
+      <c r="F139" s="15">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="G139" s="28"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="26"/>
-    </row>
-    <row r="140" hidden="1" spans="1:9">
-      <c r="A140" s="25">
+      <c r="G139" s="30"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="28"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="27">
         <v>43570</v>
       </c>
-      <c r="B140" s="26" t="s">
+      <c r="B140" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C140" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" s="27">
+      <c r="C140" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="29">
         <v>2</v>
       </c>
-      <c r="E140" s="12">
-        <v>10</v>
-      </c>
-      <c r="F140" s="13">
+      <c r="E140" s="14">
+        <v>10</v>
+      </c>
+      <c r="F140" s="15">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G140" s="28"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="26"/>
-    </row>
-    <row r="141" hidden="1" spans="1:9">
-      <c r="A141" s="25">
+      <c r="G140" s="30"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="28"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="27">
         <v>43570</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="B141" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C141" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D141" s="27">
+      <c r="C141" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" s="29">
         <v>1</v>
       </c>
-      <c r="E141" s="12">
-        <v>13</v>
-      </c>
-      <c r="F141" s="13">
+      <c r="E141" s="14">
+        <v>13</v>
+      </c>
+      <c r="F141" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G141" s="28"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="26"/>
-    </row>
-    <row r="142" hidden="1" spans="1:9">
-      <c r="A142" s="25">
+      <c r="G141" s="30"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="28"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="27">
         <v>43570</v>
       </c>
-      <c r="B142" s="26" t="s">
+      <c r="B142" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C142" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="27">
+      <c r="C142" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="29">
         <v>7</v>
       </c>
-      <c r="E142" s="12">
+      <c r="E142" s="14">
         <v>7</v>
       </c>
-      <c r="F142" s="13">
+      <c r="F142" s="15">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="G142" s="28"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="26"/>
-    </row>
-    <row r="143" hidden="1" spans="1:9">
-      <c r="A143" s="25">
+      <c r="G142" s="30"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="28"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="27">
         <v>43571</v>
       </c>
-      <c r="B143" s="26" t="s">
+      <c r="B143" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D143" s="27">
+      <c r="C143" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="29">
         <v>2</v>
       </c>
-      <c r="E143" s="12">
-        <v>10</v>
-      </c>
-      <c r="F143" s="13">
+      <c r="E143" s="14">
+        <v>10</v>
+      </c>
+      <c r="F143" s="15">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G143" s="28"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="26"/>
-    </row>
-    <row r="144" hidden="1" spans="1:9">
-      <c r="A144" s="25">
+      <c r="G143" s="30"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="28"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="27">
         <v>43571</v>
       </c>
-      <c r="B144" s="26" t="s">
+      <c r="B144" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C144" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D144" s="27">
+      <c r="C144" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="29">
         <v>1</v>
       </c>
-      <c r="E144" s="12">
-        <v>13</v>
-      </c>
-      <c r="F144" s="13">
+      <c r="E144" s="14">
+        <v>13</v>
+      </c>
+      <c r="F144" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G144" s="28"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="26"/>
-    </row>
-    <row r="145" hidden="1" spans="1:9">
-      <c r="A145" s="25">
+      <c r="G144" s="30"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="28"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="27">
         <v>43571</v>
       </c>
-      <c r="B145" s="26" t="s">
+      <c r="B145" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D145" s="27">
+      <c r="C145" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="29">
         <v>2</v>
       </c>
-      <c r="E145" s="12">
+      <c r="E145" s="14">
         <v>12</v>
       </c>
-      <c r="F145" s="13">
+      <c r="F145" s="15">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="G145" s="28"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="26"/>
-    </row>
-    <row r="146" hidden="1" spans="1:9">
-      <c r="A146" s="25">
+      <c r="G145" s="30"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="28"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="27">
         <v>43571</v>
       </c>
-      <c r="B146" s="26" t="s">
+      <c r="B146" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C146" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="27">
+      <c r="C146" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="29">
         <v>3</v>
       </c>
-      <c r="E146" s="12">
-        <v>10</v>
-      </c>
-      <c r="F146" s="13">
+      <c r="E146" s="14">
+        <v>10</v>
+      </c>
+      <c r="F146" s="15">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="G146" s="28"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="26"/>
-    </row>
-    <row r="147" hidden="1" spans="1:9">
-      <c r="A147" s="25">
+      <c r="G146" s="30"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="28"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="27">
         <v>43571</v>
       </c>
-      <c r="B147" s="26" t="s">
+      <c r="B147" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C147" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D147" s="27">
+      <c r="C147" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="29">
         <v>1</v>
       </c>
-      <c r="E147" s="12">
+      <c r="E147" s="14">
         <v>19</v>
       </c>
-      <c r="F147" s="13">
+      <c r="F147" s="15">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G147" s="28"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="26"/>
-    </row>
-    <row r="148" hidden="1" spans="1:9">
-      <c r="A148" s="25">
+      <c r="G147" s="30"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="28"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="27">
         <v>43571</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B148" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C148" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D148" s="27">
+      <c r="C148" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="29">
         <v>4</v>
       </c>
-      <c r="E148" s="12">
-        <v>10</v>
-      </c>
-      <c r="F148" s="13">
+      <c r="E148" s="14">
+        <v>10</v>
+      </c>
+      <c r="F148" s="15">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G148" s="28"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="26"/>
-    </row>
-    <row r="149" hidden="1" spans="1:9">
-      <c r="A149" s="25">
+      <c r="G148" s="30"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="28"/>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="27">
         <v>43571</v>
       </c>
-      <c r="B149" s="26" t="s">
+      <c r="B149" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C149" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="27">
+      <c r="C149" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="29">
         <v>1</v>
       </c>
-      <c r="E149" s="12">
-        <v>13</v>
-      </c>
-      <c r="F149" s="13">
+      <c r="E149" s="14">
+        <v>13</v>
+      </c>
+      <c r="F149" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G149" s="28"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="26"/>
-    </row>
-    <row r="150" hidden="1" spans="1:9">
-      <c r="A150" s="25">
+      <c r="G149" s="30"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="28"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="27">
         <v>43571</v>
       </c>
-      <c r="B150" s="26" t="s">
+      <c r="B150" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C150" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="27">
+      <c r="C150" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="29">
         <v>3</v>
       </c>
-      <c r="E150" s="12">
-        <v>10</v>
-      </c>
-      <c r="F150" s="13">
+      <c r="E150" s="14">
+        <v>10</v>
+      </c>
+      <c r="F150" s="15">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="G150" s="28"/>
-      <c r="H150" s="13"/>
-      <c r="I150" s="26"/>
-    </row>
-    <row r="151" hidden="1" spans="1:9">
-      <c r="A151" s="25">
+      <c r="G150" s="30"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="28"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="27">
         <v>43571</v>
       </c>
-      <c r="B151" s="26" t="s">
+      <c r="B151" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C151" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D151" s="27">
-        <v>0</v>
-      </c>
-      <c r="E151" s="12">
-        <v>0</v>
-      </c>
-      <c r="F151" s="13">
+      <c r="C151" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="29">
+        <v>0</v>
+      </c>
+      <c r="E151" s="14">
+        <v>0</v>
+      </c>
+      <c r="F151" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G151" s="28" t="s">
+      <c r="G151" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H151" s="13">
+      <c r="H151" s="15">
         <v>100</v>
       </c>
-      <c r="I151" s="26"/>
-    </row>
-    <row r="152" hidden="1" spans="1:9">
-      <c r="A152" s="25">
+      <c r="I151" s="28"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="27">
         <v>43572</v>
       </c>
-      <c r="B152" s="26" t="s">
+      <c r="B152" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C152" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D152" s="27">
+      <c r="C152" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="29">
         <v>1</v>
       </c>
-      <c r="E152" s="12">
-        <v>13</v>
-      </c>
-      <c r="F152" s="13">
+      <c r="E152" s="14">
+        <v>13</v>
+      </c>
+      <c r="F152" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G152" s="28"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="26"/>
-    </row>
-    <row r="153" hidden="1" spans="1:9">
-      <c r="A153" s="25">
+      <c r="G152" s="30"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="28"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="27">
         <v>43572</v>
       </c>
-      <c r="B153" s="26" t="s">
+      <c r="B153" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C153" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D153" s="27">
-        <v>0</v>
-      </c>
-      <c r="E153" s="12">
-        <v>0</v>
-      </c>
-      <c r="F153" s="13">
+      <c r="C153" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="29">
+        <v>0</v>
+      </c>
+      <c r="E153" s="14">
+        <v>0</v>
+      </c>
+      <c r="F153" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153" s="28" t="s">
+      <c r="G153" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H153" s="13">
+      <c r="H153" s="15">
         <v>100</v>
       </c>
-      <c r="I153" s="26"/>
-    </row>
-    <row r="154" hidden="1" spans="1:9">
-      <c r="A154" s="25">
+      <c r="I153" s="28"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="27">
         <v>43572</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B154" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C154" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D154" s="27">
+      <c r="C154" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="29">
         <v>44</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E154" s="14">
         <v>7</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="15">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="G154" s="28"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="26"/>
-    </row>
-    <row r="155" hidden="1" spans="1:9">
-      <c r="A155" s="25">
+      <c r="G154" s="30"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="28"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="27">
         <v>43572</v>
       </c>
-      <c r="B155" s="26" t="s">
+      <c r="B155" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D155" s="27">
+      <c r="C155" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="29">
         <v>2</v>
       </c>
-      <c r="E155" s="12">
-        <v>10</v>
-      </c>
-      <c r="F155" s="13">
+      <c r="E155" s="14">
+        <v>10</v>
+      </c>
+      <c r="F155" s="15">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G155" s="28"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="26"/>
-    </row>
-    <row r="156" hidden="1" spans="1:9">
-      <c r="A156" s="25">
+      <c r="G155" s="30"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="28"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="27">
         <v>43572</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B156" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C156" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D156" s="27">
+      <c r="C156" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="29">
         <v>1</v>
       </c>
-      <c r="E156" s="12">
-        <v>13</v>
-      </c>
-      <c r="F156" s="13">
+      <c r="E156" s="14">
+        <v>13</v>
+      </c>
+      <c r="F156" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G156" s="28"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="26"/>
-    </row>
-    <row r="157" hidden="1" spans="1:9">
-      <c r="A157" s="25">
+      <c r="G156" s="30"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="28"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="27">
         <v>43572</v>
       </c>
-      <c r="B157" s="26" t="s">
+      <c r="B157" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C157" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="27">
+      <c r="C157" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="29">
         <v>6</v>
       </c>
-      <c r="E157" s="12">
+      <c r="E157" s="14">
         <v>7</v>
       </c>
-      <c r="F157" s="13">
+      <c r="F157" s="15">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="G157" s="28"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="26"/>
+      <c r="G157" s="30"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="28"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="25">
+      <c r="A158" s="27">
         <v>43573</v>
       </c>
-      <c r="B158" s="26" t="s">
+      <c r="B158" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C158" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="27">
+      <c r="C158" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="29">
         <v>12</v>
       </c>
-      <c r="E158" s="12">
+      <c r="E158" s="14">
         <v>7</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158" s="15">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="G158" s="28"/>
-      <c r="H158" s="13"/>
-      <c r="I158" s="26"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="28"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="25">
+      <c r="A159" s="27">
         <v>43573</v>
       </c>
-      <c r="B159" s="26" t="s">
+      <c r="B159" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C159" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="27">
-        <v>0</v>
-      </c>
-      <c r="E159" s="12">
-        <v>0</v>
-      </c>
-      <c r="F159" s="13">
+      <c r="C159" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="29">
+        <v>0</v>
+      </c>
+      <c r="E159" s="14">
+        <v>0</v>
+      </c>
+      <c r="F159" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G159" s="28" t="s">
+      <c r="G159" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H159" s="13">
+      <c r="H159" s="15">
         <v>80</v>
       </c>
-      <c r="I159" s="26"/>
+      <c r="I159" s="28"/>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="25">
+      <c r="A160" s="27">
         <v>43573</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B160" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C160" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D160" s="27">
+      <c r="C160" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" s="29">
         <v>2</v>
       </c>
-      <c r="E160" s="12">
-        <v>10</v>
-      </c>
-      <c r="F160" s="13">
+      <c r="E160" s="14">
+        <v>10</v>
+      </c>
+      <c r="F160" s="15">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="H160" s="13"/>
+      <c r="H160" s="15"/>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="25">
+      <c r="A161" s="27">
         <v>43573</v>
       </c>
-      <c r="B161" s="26" t="s">
+      <c r="B161" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C161" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="27">
+      <c r="C161" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="29">
         <v>3</v>
       </c>
-      <c r="E161" s="12">
-        <v>10</v>
-      </c>
-      <c r="F161" s="13">
+      <c r="E161" s="14">
+        <v>10</v>
+      </c>
+      <c r="F161" s="15">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="H161" s="13"/>
+      <c r="H161" s="15"/>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="25">
+      <c r="A162" s="27">
         <v>43573</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C162" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D162" s="27">
+      <c r="C162" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="29">
         <v>16</v>
       </c>
-      <c r="E162" s="12">
+      <c r="E162" s="14">
         <v>7</v>
       </c>
-      <c r="F162" s="13">
+      <c r="F162" s="15">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="H162" s="13"/>
+      <c r="H162" s="15"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="25">
+      <c r="A163" s="27">
         <v>43573</v>
       </c>
-      <c r="B163" s="26" t="s">
+      <c r="B163" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C163" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D163" s="27">
+      <c r="C163" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="29">
         <v>2</v>
       </c>
-      <c r="E163" s="12">
-        <v>10</v>
-      </c>
-      <c r="F163" s="13">
+      <c r="E163" s="14">
+        <v>10</v>
+      </c>
+      <c r="F163" s="15">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="H163" s="13"/>
+      <c r="H163" s="15"/>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="25">
+      <c r="A164" s="27">
         <v>43573</v>
       </c>
-      <c r="B164" s="26" t="s">
+      <c r="B164" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C164" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D164" s="4">
+      <c r="C164" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" s="6">
         <v>2</v>
       </c>
-      <c r="E164" s="12">
-        <v>10</v>
-      </c>
-      <c r="F164" s="13">
+      <c r="E164" s="14">
+        <v>10</v>
+      </c>
+      <c r="F164" s="15">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="H164" s="13"/>
+      <c r="H164" s="15"/>
     </row>
     <row r="165" s="1" customFormat="1" spans="1:9">
-      <c r="A165" s="31">
+      <c r="A165" s="33">
         <v>43573</v>
       </c>
-      <c r="B165" s="32" t="s">
+      <c r="B165" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C165" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="24">
-        <v>10</v>
-      </c>
-      <c r="E165" s="29"/>
-      <c r="F165" s="13">
+      <c r="C165" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="26">
+        <v>10</v>
+      </c>
+      <c r="E165" s="31"/>
+      <c r="F165" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G165" s="24"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="29"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="31"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="25">
+      <c r="A166" s="27">
         <v>43573</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C166" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D166" s="27">
-        <v>0</v>
-      </c>
-      <c r="E166" s="12">
-        <v>0</v>
-      </c>
-      <c r="F166" s="13">
+      <c r="C166" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="29">
+        <v>0</v>
+      </c>
+      <c r="E166" s="14">
+        <v>0</v>
+      </c>
+      <c r="F166" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G166" s="26" t="s">
+      <c r="G166" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H166" s="13">
+      <c r="H166" s="15">
         <v>130</v>
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="25">
+      <c r="A167" s="27">
         <v>43573</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C167" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D167" s="4">
+      <c r="C167" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="6">
         <v>6</v>
       </c>
-      <c r="E167" s="12">
+      <c r="E167" s="14">
         <v>7</v>
       </c>
-      <c r="F167" s="13">
+      <c r="F167" s="15">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="H167" s="13"/>
+      <c r="H167" s="15"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="25">
+      <c r="A168" s="27">
         <v>43573</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D168" s="4">
-        <v>0</v>
-      </c>
-      <c r="E168" s="12">
-        <v>0</v>
-      </c>
-      <c r="F168" s="13">
+      <c r="C168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="6">
+        <v>0</v>
+      </c>
+      <c r="E168" s="14">
+        <v>0</v>
+      </c>
+      <c r="F168" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G168" s="26" t="s">
+      <c r="G168" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="H168" s="13">
+      <c r="H168" s="15">
         <v>130</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="25">
+      <c r="A169" s="27">
         <v>43573</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C169" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D169" s="4">
+      <c r="C169" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="6">
         <v>4</v>
       </c>
-      <c r="E169" s="12">
-        <v>10</v>
-      </c>
-      <c r="F169" s="13">
+      <c r="E169" s="14">
+        <v>10</v>
+      </c>
+      <c r="F169" s="15">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="H169" s="13"/>
+      <c r="H169" s="15"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="25">
+      <c r="A170" s="27">
         <v>43573</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C170" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D170" s="4">
+      <c r="C170" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" s="6">
         <v>1</v>
       </c>
-      <c r="E170" s="12">
-        <v>13</v>
-      </c>
-      <c r="F170" s="13">
+      <c r="E170" s="14">
+        <v>13</v>
+      </c>
+      <c r="F170" s="15">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="H170" s="13"/>
+      <c r="H170" s="15"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="2">
+      <c r="A171" s="4">
         <v>43573</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C171" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D171" s="4">
+      <c r="C171" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" s="6">
         <v>2</v>
       </c>
-      <c r="E171" s="12">
-        <v>10</v>
-      </c>
-      <c r="F171" s="13">
+      <c r="E171" s="14">
+        <v>10</v>
+      </c>
+      <c r="F171" s="15">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="H171" s="13"/>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="2">
+      <c r="H171" s="15"/>
+    </row>
+    <row r="172" s="2" customFormat="1" spans="1:9">
+      <c r="A172" s="35">
+        <v>43573</v>
+      </c>
+      <c r="B172" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="26">
+        <v>1</v>
+      </c>
+      <c r="E172" s="14"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H172" s="25"/>
+      <c r="I172" s="31"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="4">
         <v>43574</v>
       </c>
-      <c r="B172" s="33" t="s">
+      <c r="B173" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C172" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D172" s="4">
+      <c r="C173" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" s="6">
         <v>1</v>
       </c>
-      <c r="E172" s="12">
-        <v>13</v>
-      </c>
-      <c r="F172" s="13"/>
-      <c r="H172" s="13"/>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="2">
+      <c r="E173" s="14">
+        <v>13</v>
+      </c>
+      <c r="F173" s="15">
+        <f>D173*E173</f>
+        <v>13</v>
+      </c>
+      <c r="H173" s="15"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="4">
         <v>43574</v>
       </c>
-      <c r="B173" s="33" t="s">
+      <c r="B174" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C173" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D173" s="4">
+      <c r="C174" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="6">
         <v>1</v>
       </c>
-      <c r="E173" s="12">
-        <v>13</v>
-      </c>
-      <c r="F173" s="13"/>
-      <c r="H173" s="13"/>
+      <c r="E174" s="14">
+        <v>13</v>
+      </c>
+      <c r="F174" s="15">
+        <f>D174*E174</f>
+        <v>13</v>
+      </c>
+      <c r="H174" s="15"/>
+    </row>
+    <row r="175" s="2" customFormat="1" spans="1:9">
+      <c r="A175" s="35">
+        <v>43574</v>
+      </c>
+      <c r="B175" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="26">
+        <v>2</v>
+      </c>
+      <c r="E175" s="31"/>
+      <c r="F175" s="15">
+        <f>D175*E175</f>
+        <v>0</v>
+      </c>
+      <c r="G175" s="26"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="31"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B176" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" s="6">
+        <v>2</v>
+      </c>
+      <c r="E176" s="14">
+        <v>10</v>
+      </c>
+      <c r="F176" s="15">
+        <f>D176*E176</f>
+        <v>20</v>
+      </c>
+      <c r="H176" s="15"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B177" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="6">
+        <v>1</v>
+      </c>
+      <c r="E177" s="14">
+        <v>13</v>
+      </c>
+      <c r="F177" s="15">
+        <f t="shared" ref="F177:F185" si="4">D177*E177</f>
+        <v>13</v>
+      </c>
+      <c r="H177" s="15"/>
+      <c r="I177" s="44"/>
+    </row>
+    <row r="178" s="3" customFormat="1" spans="1:9">
+      <c r="A178" s="39">
+        <v>43574</v>
+      </c>
+      <c r="B178" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="41"/>
+      <c r="E178" s="42"/>
+      <c r="F178" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G178" s="41"/>
+      <c r="H178" s="43"/>
+      <c r="I178" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="179" s="3" customFormat="1" spans="1:9">
+      <c r="A179" s="39">
+        <v>43574</v>
+      </c>
+      <c r="B179" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C179" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" s="41"/>
+      <c r="E179" s="42"/>
+      <c r="F179" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G179" s="41"/>
+      <c r="H179" s="43"/>
+      <c r="I179" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="180" s="3" customFormat="1" spans="1:9">
+      <c r="A180" s="39">
+        <v>43574</v>
+      </c>
+      <c r="B180" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="41"/>
+      <c r="E180" s="42"/>
+      <c r="F180" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G180" s="41"/>
+      <c r="H180" s="43"/>
+      <c r="I180" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" s="3" customFormat="1" spans="1:9">
+      <c r="A181" s="39">
+        <v>43574</v>
+      </c>
+      <c r="B181" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C181" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="41"/>
+      <c r="E181" s="42"/>
+      <c r="F181" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G181" s="41"/>
+      <c r="H181" s="43"/>
+      <c r="I181" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="182" s="3" customFormat="1" spans="1:9">
+      <c r="A182" s="39">
+        <v>43574</v>
+      </c>
+      <c r="B182" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C182" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="41"/>
+      <c r="E182" s="42"/>
+      <c r="F182" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G182" s="41"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" s="3" customFormat="1" spans="1:9">
+      <c r="A183" s="39">
+        <v>43574</v>
+      </c>
+      <c r="B183" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C183" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="41"/>
+      <c r="E183" s="42"/>
+      <c r="F183" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G183" s="41"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" s="3" customFormat="1" spans="1:9">
+      <c r="A184" s="39">
+        <v>43574</v>
+      </c>
+      <c r="B184" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" s="41"/>
+      <c r="E184" s="42"/>
+      <c r="F184" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="41"/>
+      <c r="H184" s="43"/>
+      <c r="I184" s="45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B185" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="6">
+        <v>17</v>
+      </c>
+      <c r="E185" s="14">
+        <v>7</v>
+      </c>
+      <c r="F185" s="15">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="H185" s="43"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="6">
+        <v>48</v>
+      </c>
+      <c r="E186" s="14">
+        <v>7</v>
+      </c>
+      <c r="F186" s="15">
+        <f>D186*E186</f>
+        <v>336</v>
+      </c>
+      <c r="H186" s="43"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B187" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="6">
+        <v>1</v>
+      </c>
+      <c r="E187" s="14">
+        <v>13</v>
+      </c>
+      <c r="F187" s="15">
+        <f>D187*E187</f>
+        <v>13</v>
+      </c>
+      <c r="H187" s="43"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B188" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C188" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" s="6">
+        <v>2</v>
+      </c>
+      <c r="E188" s="14">
+        <v>10</v>
+      </c>
+      <c r="F188" s="15">
+        <f>D188*E188</f>
+        <v>20</v>
+      </c>
+      <c r="H188" s="43"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B189" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" s="6">
+        <v>2</v>
+      </c>
+      <c r="E189" s="14">
+        <v>10</v>
+      </c>
+      <c r="F189" s="15">
+        <f>D189*E189</f>
+        <v>20</v>
+      </c>
+      <c r="H189" s="43"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B190" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" s="6">
+        <v>0</v>
+      </c>
+      <c r="E190" s="14">
+        <v>0</v>
+      </c>
+      <c r="F190" s="15">
+        <f>D190*E190</f>
+        <v>0</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H190" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B191" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" s="6">
+        <v>1</v>
+      </c>
+      <c r="E191" s="14">
+        <v>13</v>
+      </c>
+      <c r="F191" s="15">
+        <f>D191*E191</f>
+        <v>13</v>
+      </c>
+      <c r="H191" s="43"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="4">
+        <v>43574</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="6">
+        <v>11</v>
+      </c>
+      <c r="E192" s="14">
+        <v>7</v>
+      </c>
+      <c r="F192" s="15">
+        <f>D192*E192</f>
+        <v>77</v>
+      </c>
+      <c r="H192" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I173">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2019" month="4" day="18" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I184">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
